--- a/reports/nn_mod_1/climate-model-simulation-crashes_nf_20/xc7z010clg400-1/Table.xlsx
+++ b/reports/nn_mod_1/climate-model-simulation-crashes_nf_20/xc7z010clg400-1/Table.xlsx
@@ -147,13 +147,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>76224.0</v>
+        <v>11169.0</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>17600.0</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>433.0909118652344</v>
+        <v>63.46022415161133</v>
       </c>
     </row>
     <row r="3">
@@ -161,13 +161,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="4">
-        <v>667.0</v>
+        <v>655.0</v>
       </c>
       <c r="C3" t="n" s="4">
         <v>6000.0</v>
       </c>
       <c r="D3" t="n" s="6">
-        <v>11.116666793823242</v>
+        <v>10.916666984558105</v>
       </c>
     </row>
     <row r="4">
@@ -175,13 +175,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>53441.0</v>
+        <v>13982.0</v>
       </c>
       <c r="C4" t="n" s="4">
         <v>35200.0</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>151.82101440429688</v>
+        <v>39.72159194946289</v>
       </c>
     </row>
     <row r="5">
